--- a/AugFramework/TestData/TestData.xlsx
+++ b/AugFramework/TestData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>abcd1234</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>Pradeep</t>
+  </si>
+  <si>
+    <t>Alok</t>
+  </si>
+  <si>
+    <t>Gurpreet</t>
   </si>
 </sst>
 </file>
@@ -408,15 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -433,6 +446,22 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
